--- a/cuadro-de-categorizacion/html/cuadro-de-categorizacion.xlsx
+++ b/cuadro-de-categorizacion/html/cuadro-de-categorizacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitmaraliaga/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitmaraliaga/Downloads/cuadro-de-categorizacion/html/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6CDBCC-69A4-1142-9A3E-B2E6E4E42E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80BB16B-E429-054C-9649-308A1E1BDEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{F50AFC2C-5E85-4807-BAB0-A85B2234AFB0}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
   <si>
     <t>Categoría</t>
   </si>
@@ -490,6 +468,10 @@
   </si>
   <si>
     <t>Análisis de tipo de clientes</t>
+  </si>
+  <si>
+    <t>[C005]
+Estrategias de cobranza propuesta</t>
   </si>
 </sst>
 </file>
@@ -628,9 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,8 +619,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,6 +633,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791CE362-685C-4F41-AB56-1AA776A0424F}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:D75"/>
+    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="214" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1012,16 +994,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1038,10 +1020,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1056,10 +1038,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1076,10 +1058,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="12"/>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -1092,10 +1074,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="12"/>
       <c r="F6" s="6" t="s">
         <v>20</v>
@@ -1108,10 +1090,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1126,12 +1108,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1148,10 +1130,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="12"/>
       <c r="F9" s="3" t="s">
         <v>13</v>
@@ -1164,10 +1146,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="12"/>
       <c r="F10" s="3" t="s">
         <v>13</v>
@@ -1180,10 +1162,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="12"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -1196,10 +1178,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="12"/>
       <c r="F12" s="6" t="s">
         <v>36</v>
@@ -1212,10 +1194,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="12" t="s">
         <v>39</v>
       </c>
@@ -1230,10 +1212,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="12"/>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -1246,10 +1228,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="12"/>
       <c r="F15" s="6" t="s">
         <v>36</v>
@@ -1262,10 +1244,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="12"/>
       <c r="F16" s="3" t="s">
         <v>13</v>
@@ -1278,10 +1260,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
@@ -1296,10 +1278,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="12"/>
       <c r="F18" s="6" t="s">
         <v>36</v>
@@ -1312,10 +1294,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="12"/>
       <c r="F19" s="6" t="s">
         <v>36</v>
@@ -1328,10 +1310,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="12"/>
       <c r="F20" s="6" t="s">
         <v>36</v>
@@ -1344,10 +1326,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="12"/>
       <c r="F21" s="3" t="s">
         <v>13</v>
@@ -1360,12 +1342,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="12" t="s">
         <v>57</v>
       </c>
@@ -1380,10 +1362,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="12"/>
       <c r="F23" s="6" t="s">
         <v>36</v>
@@ -1396,10 +1378,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="12"/>
       <c r="F24" s="6" t="s">
         <v>36</v>
@@ -1412,10 +1394,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
         <v>13</v>
@@ -1428,10 +1410,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="12"/>
       <c r="F26" s="6" t="s">
         <v>20</v>
@@ -1444,10 +1426,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="12" t="s">
         <v>65</v>
       </c>
@@ -1462,10 +1444,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="12"/>
       <c r="F28" s="6" t="s">
         <v>36</v>
@@ -1478,10 +1460,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="12"/>
       <c r="F29" s="6" t="s">
         <v>20</v>
@@ -1494,10 +1476,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
         <v>13</v>
@@ -1510,10 +1492,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="12" t="s">
         <v>71</v>
       </c>
@@ -1528,10 +1510,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="12"/>
       <c r="F32" s="6" t="s">
         <v>36</v>
@@ -1544,10 +1526,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="7" t="s">
         <v>74</v>
       </c>
@@ -1562,10 +1544,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="12" t="s">
         <v>76</v>
       </c>
@@ -1580,10 +1562,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="12"/>
       <c r="F35" s="6" t="s">
         <v>36</v>
@@ -1596,10 +1578,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="12"/>
       <c r="F36" s="6" t="s">
         <v>36</v>
@@ -1612,10 +1594,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="12"/>
       <c r="F37" s="6" t="s">
         <v>36</v>
@@ -1628,10 +1610,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="12"/>
       <c r="F38" s="3" t="s">
         <v>13</v>
@@ -1644,10 +1626,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="12"/>
       <c r="F39" s="3" t="s">
         <v>13</v>
@@ -1660,10 +1642,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="13"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="12" t="s">
         <v>83</v>
       </c>
@@ -1678,10 +1660,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="13"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="12"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -1694,10 +1676,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="13"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="12"/>
       <c r="F42" s="6" t="s">
         <v>36</v>
@@ -1710,14 +1692,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="14" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="16" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -1734,10 +1716,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="12"/>
       <c r="F44" s="3" t="s">
         <v>13</v>
@@ -1750,10 +1732,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="12"/>
       <c r="F45" s="6" t="s">
         <v>20</v>
@@ -1766,10 +1748,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="12"/>
       <c r="F46" s="6" t="s">
         <v>20</v>
@@ -1782,11 +1764,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="17" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="21" t="s">
         <v>97</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -1800,11 +1782,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="6" t="s">
         <v>20</v>
       </c>
@@ -1816,11 +1798,11 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="3" t="s">
         <v>13</v>
       </c>
@@ -1832,11 +1814,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="17"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
@@ -1848,11 +1830,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="17"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="6" t="s">
         <v>36</v>
       </c>
@@ -1864,11 +1846,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="17"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="6" t="s">
         <v>36</v>
       </c>
@@ -1880,11 +1862,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="6" t="s">
         <v>36</v>
       </c>
@@ -1896,10 +1878,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="12" t="s">
         <v>105</v>
       </c>
@@ -1914,10 +1896,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="13"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="12"/>
       <c r="F55" s="6" t="s">
         <v>36</v>
@@ -1930,10 +1912,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="13"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="12"/>
       <c r="F56" s="6" t="s">
         <v>36</v>
@@ -1946,10 +1928,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="13"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="12"/>
       <c r="F57" s="3" t="s">
         <v>13</v>
@@ -1962,10 +1944,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="12" t="s">
         <v>110</v>
       </c>
@@ -1980,10 +1962,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="12"/>
       <c r="F59" s="3" t="s">
         <v>13</v>
@@ -1996,10 +1978,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="12" t="s">
         <v>113</v>
       </c>
@@ -2014,10 +1996,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="13"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="12"/>
       <c r="F61" s="6" t="s">
         <v>20</v>
@@ -2030,10 +2012,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="12" t="s">
         <v>116</v>
       </c>
@@ -2048,10 +2030,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="13"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="12"/>
       <c r="F63" s="6" t="s">
         <v>36</v>
@@ -2064,10 +2046,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="13"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="7" t="s">
         <v>119</v>
       </c>
@@ -2082,10 +2064,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="13"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="7" t="s">
         <v>121</v>
       </c>
@@ -2100,11 +2082,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="17" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -2118,11 +2100,11 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="17"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="6" t="s">
         <v>36</v>
       </c>
@@ -2134,10 +2116,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="13"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="12" t="s">
         <v>126</v>
       </c>
@@ -2152,10 +2134,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="13"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="12"/>
       <c r="F69" s="6" t="s">
         <v>36</v>
@@ -2168,12 +2150,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="13" t="e" cm="1">
-        <f t="array" ref="D70">D43:D75za propuesta</f>
-        <v>#NAME?</v>
+      <c r="A70" s="18"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>129</v>
@@ -2189,10 +2170,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="13"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="7" t="s">
         <v>131</v>
       </c>
@@ -2207,10 +2188,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="13"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="7" t="s">
         <v>138</v>
       </c>
@@ -2225,10 +2206,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="13"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="7" t="s">
         <v>139</v>
       </c>
@@ -2243,10 +2224,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="13"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="12" t="s">
         <v>135</v>
       </c>
@@ -2261,10 +2242,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="13"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="12"/>
       <c r="F75" s="6" t="s">
         <v>36</v>
@@ -2278,23 +2259,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B8:B42"/>
-    <mergeCell ref="D8:D42"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="A2:A75"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="C22:C42"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E42"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="D70:D75"/>
     <mergeCell ref="E74:E75"/>
@@ -2308,6 +2272,23 @@
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A2:A75"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C21"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C22:C42"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B8:B42"/>
+    <mergeCell ref="D8:D42"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cuadro-de-categorizacion/html/cuadro-de-categorizacion.xlsx
+++ b/cuadro-de-categorizacion/html/cuadro-de-categorizacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitmaraliaga/Downloads/cuadro-de-categorizacion/html/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitmaraliaga/Downloads/cuadro-de-categorizacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80BB16B-E429-054C-9649-308A1E1BDEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94ECEAD-D152-0745-A85E-C32EF829E012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{F50AFC2C-5E85-4807-BAB0-A85B2234AFB0}"/>
   </bookViews>
@@ -508,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -531,48 +531,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,32 +573,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791CE362-685C-4F41-AB56-1AA776A0424F}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="214" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -994,7 +939,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1003,7 +948,7 @@
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1020,10 +965,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1038,10 +983,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1058,10 +1003,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -1074,10 +1019,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="12"/>
       <c r="F6" s="6" t="s">
         <v>20</v>
@@ -1089,11 +1034,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1108,12 +1053,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1130,10 +1075,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="12"/>
       <c r="F9" s="3" t="s">
         <v>13</v>
@@ -1146,10 +1091,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="12"/>
       <c r="F10" s="3" t="s">
         <v>13</v>
@@ -1162,10 +1107,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="12"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -1178,10 +1123,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="12"/>
       <c r="F12" s="6" t="s">
         <v>36</v>
@@ -1194,10 +1139,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="12" t="s">
         <v>39</v>
       </c>
@@ -1212,10 +1157,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -1228,10 +1173,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="12"/>
       <c r="F15" s="6" t="s">
         <v>36</v>
@@ -1244,10 +1189,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="3" t="s">
         <v>13</v>
@@ -1260,10 +1205,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
@@ -1278,10 +1223,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="12"/>
       <c r="F18" s="6" t="s">
         <v>36</v>
@@ -1294,10 +1239,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="12"/>
       <c r="F19" s="6" t="s">
         <v>36</v>
@@ -1310,10 +1255,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="12"/>
       <c r="F20" s="6" t="s">
         <v>36</v>
@@ -1326,10 +1271,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="12"/>
       <c r="F21" s="3" t="s">
         <v>13</v>
@@ -1342,12 +1287,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="12" t="s">
         <v>57</v>
       </c>
@@ -1362,10 +1307,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="12"/>
       <c r="F23" s="6" t="s">
         <v>36</v>
@@ -1378,10 +1323,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="12"/>
       <c r="F24" s="6" t="s">
         <v>36</v>
@@ -1394,10 +1339,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
         <v>13</v>
@@ -1410,10 +1355,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="12"/>
       <c r="F26" s="6" t="s">
         <v>20</v>
@@ -1426,10 +1371,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="12" t="s">
         <v>65</v>
       </c>
@@ -1444,10 +1389,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="12"/>
       <c r="F28" s="6" t="s">
         <v>36</v>
@@ -1460,10 +1405,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="12"/>
       <c r="F29" s="6" t="s">
         <v>20</v>
@@ -1476,10 +1421,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
         <v>13</v>
@@ -1492,10 +1437,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="12" t="s">
         <v>71</v>
       </c>
@@ -1510,10 +1455,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="12"/>
       <c r="F32" s="6" t="s">
         <v>36</v>
@@ -1526,10 +1471,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="7" t="s">
         <v>74</v>
       </c>
@@ -1544,10 +1489,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="12" t="s">
         <v>76</v>
       </c>
@@ -1562,10 +1507,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="12"/>
       <c r="F35" s="6" t="s">
         <v>36</v>
@@ -1578,10 +1523,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="12"/>
       <c r="F36" s="6" t="s">
         <v>36</v>
@@ -1594,10 +1539,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="12"/>
       <c r="F37" s="6" t="s">
         <v>36</v>
@@ -1610,10 +1555,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="12"/>
       <c r="F38" s="3" t="s">
         <v>13</v>
@@ -1626,10 +1571,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="12"/>
       <c r="F39" s="3" t="s">
         <v>13</v>
@@ -1642,10 +1587,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="12" t="s">
         <v>83</v>
       </c>
@@ -1660,10 +1605,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="12"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -1676,10 +1621,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="12"/>
       <c r="F42" s="6" t="s">
         <v>36</v>
@@ -1692,14 +1637,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -1716,10 +1661,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="12"/>
       <c r="F44" s="3" t="s">
         <v>13</v>
@@ -1732,10 +1677,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="16"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="12"/>
       <c r="F45" s="6" t="s">
         <v>20</v>
@@ -1748,10 +1693,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="12"/>
       <c r="F46" s="6" t="s">
         <v>20</v>
@@ -1764,11 +1709,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="21" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="s">
         <v>97</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -1782,11 +1727,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="21"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="6" t="s">
         <v>20</v>
       </c>
@@ -1798,11 +1743,11 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="21"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="3" t="s">
         <v>13</v>
       </c>
@@ -1814,11 +1759,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="21"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
@@ -1830,11 +1775,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="21"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="6" t="s">
         <v>36</v>
       </c>
@@ -1846,11 +1791,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="21"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="6" t="s">
         <v>36</v>
       </c>
@@ -1862,11 +1807,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="21"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="6" t="s">
         <v>36</v>
       </c>
@@ -1878,10 +1823,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="12" t="s">
         <v>105</v>
       </c>
@@ -1896,10 +1841,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="12"/>
       <c r="F55" s="6" t="s">
         <v>36</v>
@@ -1912,10 +1857,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="12"/>
       <c r="F56" s="6" t="s">
         <v>36</v>
@@ -1928,10 +1873,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="16"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="12"/>
       <c r="F57" s="3" t="s">
         <v>13</v>
@@ -1944,10 +1889,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="12" t="s">
         <v>110</v>
       </c>
@@ -1962,10 +1907,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="12"/>
       <c r="F59" s="3" t="s">
         <v>13</v>
@@ -1978,10 +1923,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="12" t="s">
         <v>113</v>
       </c>
@@ -1996,10 +1941,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="12"/>
       <c r="F61" s="6" t="s">
         <v>20</v>
@@ -2012,10 +1957,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="12" t="s">
         <v>116</v>
       </c>
@@ -2030,10 +1975,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="12"/>
       <c r="F63" s="6" t="s">
         <v>36</v>
@@ -2046,10 +1991,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="7" t="s">
         <v>119</v>
       </c>
@@ -2064,10 +2009,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="7" t="s">
         <v>121</v>
       </c>
@@ -2082,11 +2027,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="21" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14" t="s">
         <v>123</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -2100,11 +2045,11 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="21"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="6" t="s">
         <v>36</v>
       </c>
@@ -2116,10 +2061,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="12" t="s">
         <v>126</v>
       </c>
@@ -2134,10 +2079,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="16"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="12"/>
       <c r="F69" s="6" t="s">
         <v>36</v>
@@ -2150,10 +2095,10 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="16" t="s">
+      <c r="A70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -2170,10 +2115,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
       <c r="E71" s="7" t="s">
         <v>131</v>
       </c>
@@ -2188,10 +2133,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="16"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="7" t="s">
         <v>138</v>
       </c>
@@ -2206,10 +2151,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
       <c r="E73" s="7" t="s">
         <v>139</v>
       </c>
@@ -2224,10 +2169,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="16"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="12" t="s">
         <v>135</v>
       </c>
@@ -2242,10 +2187,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="16"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
       <c r="E75" s="12"/>
       <c r="F75" s="6" t="s">
         <v>36</v>
@@ -2259,6 +2204,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B8:B42"/>
+    <mergeCell ref="D8:D42"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="A2:A75"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C21"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C22:C42"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="D70:D75"/>
     <mergeCell ref="E74:E75"/>
@@ -2272,23 +2234,6 @@
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A2:A75"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="C22:C42"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B8:B42"/>
-    <mergeCell ref="D8:D42"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E40:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
